--- a/Data/Final_Output/Stats_Possession_Final.xlsx
+++ b/Data/Final_Output/Stats_Possession_Final.xlsx
@@ -455,7 +455,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>redbull njr</t>
+          <t>HOME</t>
         </is>
       </c>
     </row>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
@@ -552,7 +552,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -578,35 +578,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B. Charlton</t>
+          <t>Z. Shen</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>ST</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N. Ono</t>
+          <t>A. Ji</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -620,14 +620,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A. Banks</t>
+          <t>E. Chang</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -641,11 +641,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>O. Gillet</t>
+          <t>T. Morel</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>C. Bernard</t>
+          <t>K. Kowalczyk</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -683,11 +683,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>s. karl</t>
+          <t>E. Monteiro</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -704,11 +704,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>I. Lanzini</t>
+          <t>C. Hassan</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -725,11 +725,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>P. Hansen</t>
+          <t>O. John</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -746,11 +746,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>S. Ribeiro</t>
+          <t>Y. Clerc</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -767,11 +767,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>M. Lund</t>
+          <t>J. Al Shahrani</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>7.1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -814,97 +814,99 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Possession (%)</t>
+          <t>Dribbling Rating</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dribbles</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>21</v>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dribbles Completed</t>
+          <t>Possession (%)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dribble Success Rate (%)</t>
+          <t>Dribbles</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>90</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Distance Dribbled (km)</t>
+          <t>Dribbles Completed</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tackled By Opponent</t>
+          <t>Dribble Success Rate (%)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Corners Won</t>
+          <t>Distance Dribbled (km)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fouls Won</t>
+          <t>Tackled By Opponent</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Penalties Won</t>
+          <t>Corners Won</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Assists From Dummy</t>
+          <t>Fouls Won</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -914,17 +916,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Regular Dribble (%)</t>
+          <t>Penalties Won</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Shield Dribble (%)</t>
+          <t>Assists From Dummy</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -934,47 +936,47 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Strafe Dribble (%)</t>
+          <t>Regular Dribble (%)</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Agile Dribble (%)</t>
+          <t>Shield Dribble (%)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Forward Through Attempted</t>
+          <t>Strafe Dribble (%)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Forward Through Completed</t>
+          <t>Agile Dribble (%)</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Forward Around Attempted</t>
+          <t>Forward Through Attempted</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -984,7 +986,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Forward Around Completed</t>
+          <t>Forward Through Completed</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -994,47 +996,47 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Midfield Through Attempted</t>
+          <t>Forward Around Attempted</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Midfield Through Completed</t>
+          <t>Forward Around Completed</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Midfield Around Attempted</t>
+          <t>Midfield Through Attempted</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Midfield Around Completed</t>
+          <t>Midfield Through Completed</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Defensive Through Attempted</t>
+          <t>Midfield Around Attempted</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1044,7 +1046,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Defensive Through Completed</t>
+          <t>Midfield Around Completed</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1054,61 +1056,81 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Defensive Around Attempted</t>
+          <t>Defensive Through Attempted</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Defensive Around Completed</t>
+          <t>Defensive Through Completed</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Beat</t>
+          <t>Defensive Around Attempted</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Skill move Beat</t>
+          <t>Defensive Around Completed</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Nutmeg</t>
+          <t>Beat</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>Skill move Beat</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Nutmeg</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
           <t>Knock-ons</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>2</v>
+      <c r="B33" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
